--- a/server/data/users_.xlsx
+++ b/server/data/users_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11805"/>
+    <workbookView windowWidth="17325" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="82">
   <si>
     <t>工号</t>
   </si>
@@ -231,6 +231,48 @@
   </si>
   <si>
     <t>63</t>
+  </si>
+  <si>
+    <t>BPSH001</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>BPSH002</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>BPSH003</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>BPSH004</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>BPSH005</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>BPSH006</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>BPSH007</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25" outlineLevelCol="2"/>
@@ -1928,6 +1970,84 @@
         <v>5</v>
       </c>
     </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
